--- a/Home Task Collections.xlsx
+++ b/Home Task Collections.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
   <si>
     <t>Замер производительности</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>+/-</t>
   </si>
   <si>
     <t>HashSet</t>
@@ -376,13 +379,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
+      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -597,7 +600,7 @@
         <v>33</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>33</v>
@@ -626,7 +629,7 @@
         <v>33</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>33</v>
@@ -634,7 +637,7 @@
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>33</v>
@@ -663,7 +666,7 @@
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>32</v>
@@ -692,7 +695,7 @@
     </row>
     <row r="28" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>33</v>
@@ -707,13 +710,13 @@
         <v>33</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>33</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>32</v>
@@ -723,16 +726,16 @@
     <row r="30" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>29</v>
@@ -746,7 +749,7 @@
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>33</v>
@@ -772,7 +775,7 @@
     </row>
     <row r="32" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>33</v>
@@ -784,13 +787,13 @@
         <v>33</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>33</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>32</v>
@@ -798,7 +801,7 @@
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>33</v>
@@ -824,12 +827,12 @@
     </row>
     <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -849,7 +852,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
@@ -876,7 +879,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
